--- a/docs/StructureDefinition-extension-complex.xlsx
+++ b/docs/StructureDefinition-extension-complex.xlsx
@@ -282,7 +282,7 @@
     <t>A bunch of example codes</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/test4/ValueSet/blah-codes</t>
+    <t>http://www.fhir.org/guides/test3/ValueSet/blah-codes</t>
   </si>
   <si>
     <t>text</t>
@@ -294,7 +294,7 @@
     <t>an example of a complex extension - extension string.</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/test4/StructureDefinition/extension-complex</t>
+    <t>http://www.fhir.org/guides/test3/StructureDefinition/extension-complex</t>
   </si>
 </sst>
 </file>

--- a/docs/StructureDefinition-extension-complex.xlsx
+++ b/docs/StructureDefinition-extension-complex.xlsx
@@ -282,7 +282,7 @@
     <t>A bunch of example codes</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/test3/ValueSet/blah-codes</t>
+    <t>http://www.fhir.org/guides/test4/ValueSet/blah-codes</t>
   </si>
   <si>
     <t>text</t>
@@ -294,7 +294,7 @@
     <t>an example of a complex extension - extension string.</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/test3/StructureDefinition/extension-complex</t>
+    <t>http://www.fhir.org/guides/test4/StructureDefinition/extension-complex</t>
   </si>
 </sst>
 </file>
